--- a/ocms/src/test/resources/DownloadedFiles/Template AuxCodes.xlsx
+++ b/ocms/src/test/resources/DownloadedFiles/Template AuxCodes.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="35">
   <si>
     <t xml:space="preserve">Template Name</t>
   </si>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">TMAC Template</t>
   </si>
   <si>
-    <t xml:space="preserve">AutoTemplate2</t>
-  </si>
-  <si>
     <t xml:space="preserve">TRSTEST</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t xml:space="preserve">Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dell</t>
   </si>
   <si>
     <t xml:space="preserve">Pathu</t>
@@ -183,7 +186,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane state="frozen" ySplit="1" topLeftCell="A2"/>
@@ -605,10 +608,10 @@
       <c r="B38">
              </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" x14ac:dyDescent="0.25">
@@ -636,17 +639,22 @@
       <c r="B41">
              </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" x14ac:dyDescent="0.25">
       <c r="A42">
              </c>
-      <c r="B42" t="s">
-        <v>27</v>
+      <c r="B42">
+             </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="43" x14ac:dyDescent="0.25">
@@ -654,11 +662,11 @@
              </c>
       <c r="B43">
              </c>
-      <c r="C43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>3</v>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.25">
@@ -667,10 +675,10 @@
       <c r="B44">
              </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" x14ac:dyDescent="0.25">
@@ -679,10 +687,10 @@
       <c r="B45">
              </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" x14ac:dyDescent="0.25">
@@ -691,10 +699,10 @@
       <c r="B46">
              </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" x14ac:dyDescent="0.25">
@@ -703,10 +711,10 @@
       <c r="B47">
              </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" x14ac:dyDescent="0.25">
@@ -715,10 +723,10 @@
       <c r="B48">
              </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.25">
@@ -727,10 +735,10 @@
       <c r="B49">
              </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" x14ac:dyDescent="0.25">
@@ -739,10 +747,10 @@
       <c r="B50">
              </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" x14ac:dyDescent="0.25">
@@ -751,22 +759,17 @@
       <c r="B51">
              </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" x14ac:dyDescent="0.25">
       <c r="A52">
              </c>
-      <c r="B52">
-             </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>19</v>
+      <c r="B52" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="53" x14ac:dyDescent="0.25">
@@ -774,18 +777,23 @@
              </c>
       <c r="B53">
              </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" t="s">
-        <v>31</v>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="54" x14ac:dyDescent="0.25">
       <c r="A54">
              </c>
-      <c r="B54" t="s">
-        <v>32</v>
+      <c r="B54">
+             </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="55" x14ac:dyDescent="0.25">
@@ -793,11 +801,11 @@
              </c>
       <c r="B55">
              </c>
-      <c r="C55" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>3</v>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="56" x14ac:dyDescent="0.25">
@@ -806,10 +814,10 @@
       <c r="B56">
              </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" x14ac:dyDescent="0.25">
@@ -818,10 +826,10 @@
       <c r="B57">
              </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" x14ac:dyDescent="0.25">
@@ -830,10 +838,10 @@
       <c r="B58">
              </c>
       <c r="C58" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" x14ac:dyDescent="0.25">
@@ -842,10 +850,10 @@
       <c r="B59">
              </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" x14ac:dyDescent="0.25">
@@ -854,10 +862,10 @@
       <c r="B60">
              </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61" x14ac:dyDescent="0.25">
@@ -866,10 +874,10 @@
       <c r="B61">
              </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" x14ac:dyDescent="0.25">
@@ -878,10 +886,10 @@
       <c r="B62">
              </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" x14ac:dyDescent="0.25">
@@ -890,29 +898,29 @@
       <c r="B63">
              </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" x14ac:dyDescent="0.25">
       <c r="A64">
              </c>
-      <c r="B64">
-             </c>
-      <c r="C64" t="s">
-        <v>30</v>
-      </c>
-      <c r="D64" t="s">
-        <v>31</v>
+      <c r="B64" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65" x14ac:dyDescent="0.25">
       <c r="A65">
              </c>
-      <c r="B65" t="s">
-        <v>33</v>
+      <c r="B65">
+             </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="66" x14ac:dyDescent="0.25">
@@ -920,22 +928,10 @@
              </c>
       <c r="B66">
              </c>
-      <c r="C66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" x14ac:dyDescent="0.25">
-      <c r="A67">
-             </c>
-      <c r="B67">
-             </c>
-      <c r="C67" t="s">
+      <c r="C66" t="s">
         <v>12</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D66" t="s">
         <v>13</v>
       </c>
     </row>
